--- a/chapters/ch12-PersonalAction/datasets/CO2Savings.xlsx
+++ b/chapters/ch12-PersonalAction/datasets/CO2Savings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch12-PersonalAction/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAED84DB-5B7B-3A43-B6E4-3A6AA3B98FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52FD016-DDEA-224A-B34F-84A04F935D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25560" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,12 @@
     <sheet name="carbon-footprint-travel-mode" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'data to use'!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'data to use'!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'data to use'!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'data to use'!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'data to use'!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'data to use'!$B$2:$B$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'CE2.1'!$2:$5</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
@@ -921,22 +927,22 @@
     <t>Action</t>
   </si>
   <si>
-    <t>Walk or bike to work</t>
-  </si>
-  <si>
     <t>Savings_kgCO2_year</t>
   </si>
   <si>
     <t>Smaller home</t>
   </si>
   <si>
-    <t>Chicken not steak</t>
-  </si>
-  <si>
-    <t>Accord not F150</t>
-  </si>
-  <si>
-    <t>Don't fly</t>
+    <t>No commute</t>
+  </si>
+  <si>
+    <t>Chicken, not steak</t>
+  </si>
+  <si>
+    <t>Accord, not F150</t>
+  </si>
+  <si>
+    <t>No NYC-&gt;LHR</t>
   </si>
 </sst>
 </file>
@@ -1346,6 +1352,890 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data to use'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Savings_kgCO2_year</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data to use'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>No commute</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Smaller home</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chicken, not steak</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Accord, not F150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>No NYC-&gt;LHR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data to use'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3216.3849120515952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2286.3588255000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>834.51360879999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-796B-AA46-BF29-B149F916399A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2052913360"/>
+        <c:axId val="771989375"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2052913360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771989375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="771989375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2052913360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF60D4B6-8593-E04E-8B4C-4ED81D471A28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1612,12 +2502,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1625,12 +2515,12 @@
         <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B2">
         <f>Calculations!B3</f>
@@ -1639,7 +2529,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3">
         <f>Calculations!B4</f>
@@ -1675,6 +2565,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/chapters/ch12-PersonalAction/datasets/CO2Savings.xlsx
+++ b/chapters/ch12-PersonalAction/datasets/CO2Savings.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch12-PersonalAction/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52FD016-DDEA-224A-B34F-84A04F935D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3E75BD-5757-0940-96B9-D18225EF09AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25560" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25560" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data to use" sheetId="4" r:id="rId1"/>
-    <sheet name="Calculations" sheetId="1" r:id="rId2"/>
-    <sheet name="CE2.1" sheetId="2" r:id="rId3"/>
-    <sheet name="carbon-footprint-travel-mode" sheetId="3" r:id="rId4"/>
+    <sheet name="CO2 budgets" sheetId="5" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="1" r:id="rId3"/>
+    <sheet name="CE2.1" sheetId="2" r:id="rId4"/>
+    <sheet name="carbon-footprint-travel-mode" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'data to use'!$A$2:$A$6</definedName>
@@ -25,7 +26,7 @@
     <definedName name="_xlchart.v1.3" hidden="1">'data to use'!$A$2:$A$6</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'data to use'!$B$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'data to use'!$B$2:$B$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'CE2.1'!$2:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'CE2.1'!$2:$5</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="215">
   <si>
     <t>Ford F150 Pickup truck</t>
   </si>
@@ -943,6 +944,54 @@
   </si>
   <si>
     <t>No NYC-&gt;LHR</t>
+  </si>
+  <si>
+    <t>CO2 budget estimate</t>
+  </si>
+  <si>
+    <t>GtCO2 in 10 years</t>
+  </si>
+  <si>
+    <t>GtCO2/year</t>
+  </si>
+  <si>
+    <t>GkgCO2/year</t>
+  </si>
+  <si>
+    <t>kgCO2/year</t>
+  </si>
+  <si>
+    <t>billion people</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>MgCO2/year</t>
+  </si>
+  <si>
+    <t>MgCO2/person-year</t>
+  </si>
+  <si>
+    <t>million t</t>
+  </si>
+  <si>
+    <t>US CO2 emissions (2018)</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>persons, US population 2018</t>
+  </si>
+  <si>
+    <t>Mg/person</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1264,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1327,6 +1376,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="8" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="7" xr:uid="{94C00E79-8FC6-4FCC-95AC-BDD77700F3F0}"/>
@@ -1469,7 +1519,7 @@
                   <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>834.51360879999993</c:v>
+                  <c:v>1669.0272175999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2501,7 +2551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7230DE2F-683C-F446-8E08-7B5A42AE28C1}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -2560,7 +2610,7 @@
       </c>
       <c r="B6">
         <f>Calculations!B7</f>
-        <v>834.51360879999993</v>
+        <v>1669.0272175999999</v>
       </c>
     </row>
   </sheetData>
@@ -2570,11 +2620,161 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF61853-88D9-524A-BEA8-40A2AFFA7F25}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>A3/10</f>
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>A4*1000</f>
+        <v>50000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>A5*1000000000</f>
+        <v>50000000000000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>A6/1000</f>
+        <v>50000000000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>A9*1000000000</f>
+        <v>8000000000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>A7/A10</f>
+        <v>6.25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5268</v>
+      </c>
+      <c r="B21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>A21*1000000</f>
+        <v>5268000000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>A22*1000</f>
+        <v>5268000000000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>A23/1000</f>
+        <v>5268000000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="45">
+        <v>327096263</v>
+      </c>
+      <c r="B26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f>A24/A26</f>
+        <v>16.105350613559288</v>
+      </c>
+      <c r="B28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2641,7 +2841,7 @@
       </c>
       <c r="B7" s="1">
         <f>B58</f>
-        <v>834.51360879999993</v>
+        <v>1669.0272175999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3040,7 +3240,8 @@
         <v>17</v>
       </c>
       <c r="B55" s="1">
-        <v>5570.48</v>
+        <f>5570.48 * 2</f>
+        <v>11140.96</v>
       </c>
       <c r="E55" s="33"/>
     </row>
@@ -3066,7 +3267,7 @@
       </c>
       <c r="B58" s="32">
         <f>(B56*B55)/1000</f>
-        <v>834.51360879999993</v>
+        <v>1669.0272175999999</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -3098,7 +3299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC53D5F7-FB55-47B4-B03F-B2DF1D6BAF62}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6625,7 +6826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B071F935-6AF7-4560-8983-9226C844D06C}">
   <dimension ref="A1:D40"/>
   <sheetViews>

--- a/chapters/ch12-PersonalAction/datasets/CO2Savings.xlsx
+++ b/chapters/ch12-PersonalAction/datasets/CO2Savings.xlsx
@@ -8,25 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch12-PersonalAction/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3E75BD-5757-0940-96B9-D18225EF09AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F10360-1BC9-6F45-9230-C8F32045AF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25560" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25560" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data to use" sheetId="4" r:id="rId1"/>
-    <sheet name="CO2 budgets" sheetId="5" r:id="rId2"/>
-    <sheet name="Calculations" sheetId="1" r:id="rId3"/>
-    <sheet name="CE2.1" sheetId="2" r:id="rId4"/>
-    <sheet name="carbon-footprint-travel-mode" sheetId="3" r:id="rId5"/>
+    <sheet name="data to use" sheetId="6" r:id="rId1"/>
+    <sheet name="data to use old" sheetId="4" r:id="rId2"/>
+    <sheet name="CO2 budgets" sheetId="5" r:id="rId3"/>
+    <sheet name="Calculations" sheetId="1" r:id="rId4"/>
+    <sheet name="CE2.1" sheetId="2" r:id="rId5"/>
+    <sheet name="carbon-footprint-travel-mode" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'data to use'!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'data to use'!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'data to use'!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'data to use'!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'data to use'!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'data to use'!$B$2:$B$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'CE2.1'!$2:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'CE2.1'!$2:$5</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -47,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="231">
   <si>
     <t>Ford F150 Pickup truck</t>
   </si>
@@ -745,9 +740,6 @@
     <t>2750 ft^2</t>
   </si>
   <si>
-    <t>GHG emitted driving 12000 miles (grams)</t>
-  </si>
-  <si>
     <t>Total distance in a year (miles)</t>
   </si>
   <si>
@@ -992,6 +984,57 @@
   </si>
   <si>
     <t>Mg/person</t>
+  </si>
+  <si>
+    <t>GHG emitted driving 12000 miles (kg)</t>
+  </si>
+  <si>
+    <t>Choice</t>
+  </si>
+  <si>
+    <t>100 miles/day</t>
+  </si>
+  <si>
+    <t>Bike or walk</t>
+  </si>
+  <si>
+    <t>2750 ft2</t>
+  </si>
+  <si>
+    <t>1250 ft2</t>
+  </si>
+  <si>
+    <t>Steak</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Small car</t>
+  </si>
+  <si>
+    <t>F150</t>
+  </si>
+  <si>
+    <t>Accord</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>CO2 emissions [kg/year]</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>More sustainable</t>
+  </si>
+  <si>
+    <t>Less sustainable</t>
   </si>
 </sst>
 </file>
@@ -1355,6 +1398,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1376,7 +1420,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="8" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="7" xr:uid="{94C00E79-8FC6-4FCC-95AC-BDD77700F3F0}"/>
@@ -1458,7 +1501,433 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'data to use'!$B$1</c:f>
+              <c:f>'data to use'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2 emissions [kg/year]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data to use'!$B$2:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>No commute</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No commute</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Smaller home</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Smaller home</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Chicken, not steak</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Chicken, not steak</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Small car</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Small car</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>No NYC-&gt;LHR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data to use'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12683.76332661842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9467.3784145668251</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2538.1874340000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>251.8286085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1669.0272175999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF9A-E244-B4B5-269BF3DEAC9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data to use'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data to use'!$B$2:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>No commute</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No commute</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Smaller home</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Smaller home</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Chicken, not steak</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Chicken, not steak</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Small car</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Small car</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>No NYC-&gt;LHR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data to use'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF9A-E244-B4B5-269BF3DEAC9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="772004239"/>
+        <c:axId val="772767919"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="772004239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772767919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="772767919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772004239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data to use old'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1479,7 +1948,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'data to use'!$A$2:$A$6</c:f>
+              <c:f>'data to use old'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1502,7 +1971,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'data to use'!$B$2:$B$6</c:f>
+              <c:f>'data to use old'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1703,6 +2172,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2245,7 +2754,551 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD03D25-7A42-4542-AC99-0A4FAECA0646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2548,6 +3601,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF0CF2D-B245-8E46-979D-7C9FE638B0C3}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2">
+        <f>Calculations!B42</f>
+        <v>6164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4">
+        <f>Calculations!F21</f>
+        <v>12683.76332661842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5">
+        <f>Calculations!F20</f>
+        <v>9467.3784145668251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6">
+        <f>Calculations!C48</f>
+        <v>2538.1874340000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7">
+        <f>Calculations!C49</f>
+        <v>251.8286085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8">
+        <f>Calculations!C30</f>
+        <v>5196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9">
+        <f>Calculations!C31</f>
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10">
+        <f>Calculations!B7</f>
+        <v>1669.0272175999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7230DE2F-683C-F446-8E08-7B5A42AE28C1}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2562,15 +3797,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
         <v>192</v>
-      </c>
-      <c r="B1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2">
         <f>Calculations!B3</f>
@@ -2579,7 +3814,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3">
         <f>Calculations!B4</f>
@@ -2588,7 +3823,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4">
         <f>Calculations!B5</f>
@@ -2597,7 +3832,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5">
         <f>Calculations!B6</f>
@@ -2606,7 +3841,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6">
         <f>Calculations!B7</f>
@@ -2619,11 +3854,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF61853-88D9-524A-BEA8-40A2AFFA7F25}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -2634,7 +3869,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2642,7 +3877,7 @@
         <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2651,7 +3886,7 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2660,7 +3895,7 @@
         <v>50000</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2669,7 +3904,7 @@
         <v>50000000000000</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2678,7 +3913,7 @@
         <v>50000000000</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2686,7 +3921,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2695,7 +3930,7 @@
         <v>8000000000</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2704,12 +3939,12 @@
         <v>6.25</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2717,7 +3952,7 @@
         <v>5268</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2726,7 +3961,7 @@
         <v>5268000000</v>
       </c>
       <c r="B22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2735,7 +3970,7 @@
         <v>5268000000000</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -2744,15 +3979,15 @@
         <v>5268000000</v>
       </c>
       <c r="B24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="38">
+        <v>327096263</v>
+      </c>
+      <c r="B26" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="45">
-        <v>327096263</v>
-      </c>
-      <c r="B26" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -2761,7 +3996,7 @@
         <v>16.105350613559288</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2769,12 +4004,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2792,16 +4027,16 @@
   <sheetData>
     <row r="1" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:7" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="1">
         <f>B42</f>
@@ -2810,7 +4045,7 @@
     </row>
     <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1">
         <f>B23</f>
@@ -2819,7 +4054,7 @@
     </row>
     <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="1">
         <f>B51</f>
@@ -2828,7 +4063,7 @@
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="1">
         <f>B33</f>
@@ -2837,7 +4072,7 @@
     </row>
     <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" s="1">
         <f>B58</f>
@@ -2850,12 +4085,12 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
@@ -2999,7 +4234,7 @@
         <v>1562.4</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>124</v>
@@ -3028,10 +4263,10 @@
         <v>710.18181818181813</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -3040,10 +4275,10 @@
         <v>2.0813375481189546E-4</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -3059,7 +4294,7 @@
         <v>208.13375481189547</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -3079,7 +4314,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -3090,8 +4325,8 @@
         <v>433</v>
       </c>
       <c r="C30" s="1">
-        <f>B30*12000</f>
-        <v>5196000</v>
+        <f>B30*12000 / 1000</f>
+        <v>5196</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>3</v>
@@ -3105,8 +4340,8 @@
         <v>268</v>
       </c>
       <c r="C31" s="1">
-        <f>B31*12000</f>
-        <v>3216000</v>
+        <f>B31*12000 / 1000</f>
+        <v>3216</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -3114,7 +4349,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="31">
-        <f>(C30-C31)/1000</f>
+        <f>(C30-C31)</f>
         <v>1980</v>
       </c>
     </row>
@@ -3133,7 +4368,7 @@
     </row>
     <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" s="1">
         <f>230*B37</f>
@@ -3255,7 +4490,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -3263,7 +4498,7 @@
     </row>
     <row r="58" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B58" s="32">
         <f>(B56*B55)/1000</f>
@@ -3299,7 +4534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC53D5F7-FB55-47B4-B03F-B2DF1D6BAF62}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3323,40 +4558,40 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" s="10" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="41" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:12" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -6791,20 +8026,20 @@
       <c r="L94" s="26"/>
     </row>
     <row r="95" spans="1:12" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="44" t="s">
+      <c r="A95" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="44"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="44"/>
-      <c r="K95" s="44"/>
-      <c r="L95" s="44"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="45"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="45"/>
+      <c r="K95" s="45"/>
+      <c r="L95" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6826,7 +8061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B071F935-6AF7-4560-8983-9226C844D06C}">
   <dimension ref="A1:D40"/>
   <sheetViews>
@@ -6836,21 +8071,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>136</v>
-      </c>
-      <c r="D1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -6861,7 +8096,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3">
         <v>2018</v>
@@ -6872,7 +8107,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4">
         <v>2018</v>
@@ -6883,7 +8118,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5">
         <v>2018</v>
@@ -6894,7 +8129,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6">
         <v>2018</v>
@@ -6905,7 +8140,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7">
         <v>2018</v>
@@ -6916,7 +8151,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8">
         <v>2018</v>
@@ -6927,7 +8162,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9">
         <v>2018</v>
@@ -6938,7 +8173,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10">
         <v>2018</v>
@@ -6949,7 +8184,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11">
         <v>2018</v>
@@ -6960,7 +8195,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12">
         <v>2018</v>
@@ -6971,7 +8206,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13">
         <v>2018</v>
@@ -6982,7 +8217,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14">
         <v>2018</v>
@@ -6993,7 +8228,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15">
         <v>2018</v>
@@ -7004,7 +8239,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16">
         <v>2018</v>
@@ -7015,7 +8250,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17">
         <v>2018</v>
@@ -7026,7 +8261,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18">
         <v>2018</v>
@@ -7037,7 +8272,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19">
         <v>2018</v>
@@ -7048,7 +8283,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20">
         <v>2018</v>
@@ -7059,7 +8294,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21">
         <v>2018</v>
@@ -7070,7 +8305,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22">
         <v>2018</v>
@@ -7081,7 +8316,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23">
         <v>2018</v>
@@ -7092,7 +8327,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24">
         <v>2018</v>
@@ -7103,7 +8338,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C25">
         <v>2018</v>
@@ -7114,7 +8349,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26">
         <v>2018</v>
@@ -7125,7 +8360,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27">
         <v>2018</v>
@@ -7136,7 +8371,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28">
         <v>2018</v>
@@ -7147,7 +8382,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C29">
         <v>2018</v>
@@ -7158,7 +8393,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30">
         <v>2018</v>
@@ -7169,7 +8404,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31">
         <v>2018</v>
@@ -7180,7 +8415,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32">
         <v>2018</v>
@@ -7191,7 +8426,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C33">
         <v>2018</v>
@@ -7202,7 +8437,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34">
         <v>2018</v>
@@ -7213,7 +8448,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35">
         <v>2018</v>
@@ -7224,7 +8459,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36">
         <v>2018</v>
@@ -7235,7 +8470,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C37">
         <v>2018</v>
@@ -7246,7 +8481,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38">
         <v>2018</v>
@@ -7257,7 +8492,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C39">
         <v>2018</v>
@@ -7268,7 +8503,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C40">
         <v>2018</v>

--- a/chapters/ch12-PersonalAction/datasets/CO2Savings.xlsx
+++ b/chapters/ch12-PersonalAction/datasets/CO2Savings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch12-PersonalAction/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F10360-1BC9-6F45-9230-C8F32045AF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2333E006-BD15-2A46-8D7D-5FDB3A8BB89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25560" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'CE2.1'!$2:$5</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -995,9 +993,6 @@
     <t>100 miles/day</t>
   </si>
   <si>
-    <t>Bike or walk</t>
-  </si>
-  <si>
     <t>2750 ft2</t>
   </si>
   <si>
@@ -1022,9 +1017,6 @@
     <t>Fly</t>
   </si>
   <si>
-    <t>Zoom</t>
-  </si>
-  <si>
     <t>CO2 emissions [kg/year]</t>
   </si>
   <si>
@@ -1035,6 +1027,12 @@
   </si>
   <si>
     <t>Less sustainable</t>
+  </si>
+  <si>
+    <t>Virtual meeting</t>
+  </si>
+  <si>
+    <t>Cycle or walk</t>
   </si>
 </sst>
 </file>
@@ -3605,7 +3603,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3616,7 +3614,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
         <v>191</v>
@@ -3625,12 +3623,12 @@
         <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
         <v>194</v>
@@ -3645,13 +3643,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
         <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3659,13 +3657,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
         <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4">
         <f>Calculations!F21</f>
@@ -3674,13 +3672,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
         <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5">
         <f>Calculations!F20</f>
@@ -3689,13 +3687,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
         <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6">
         <f>Calculations!C48</f>
@@ -3704,13 +3702,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
         <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7">
         <f>Calculations!C49</f>
@@ -3719,13 +3717,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
         <v>222</v>
-      </c>
-      <c r="C8" t="s">
-        <v>223</v>
       </c>
       <c r="D8">
         <f>Calculations!C30</f>
@@ -3734,13 +3732,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9">
         <f>Calculations!C31</f>
@@ -3749,13 +3747,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B10" t="s">
         <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10">
         <f>Calculations!B7</f>
@@ -3764,13 +3762,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
         <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D11">
         <v>0</v>

--- a/chapters/ch12-PersonalAction/datasets/CO2Savings.xlsx
+++ b/chapters/ch12-PersonalAction/datasets/CO2Savings.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch12-PersonalAction/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2333E006-BD15-2A46-8D7D-5FDB3A8BB89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2A8F1A-A0B5-4E4E-9AD6-2DDF25B680DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25560" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25560" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data to use" sheetId="6" r:id="rId1"/>
-    <sheet name="data to use old" sheetId="4" r:id="rId2"/>
+    <sheet name="savings" sheetId="4" r:id="rId2"/>
     <sheet name="CO2 budgets" sheetId="5" r:id="rId3"/>
     <sheet name="Calculations" sheetId="1" r:id="rId4"/>
     <sheet name="CE2.1" sheetId="2" r:id="rId5"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="230">
   <si>
     <t>Ford F150 Pickup truck</t>
   </si>
@@ -1008,12 +1010,6 @@
     <t>Small car</t>
   </si>
   <si>
-    <t>F150</t>
-  </si>
-  <si>
-    <t>Accord</t>
-  </si>
-  <si>
     <t>Fly</t>
   </si>
   <si>
@@ -1033,6 +1029,9 @@
   </si>
   <si>
     <t>Cycle or walk</t>
+  </si>
+  <si>
+    <t>Ford F150</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1583,7 @@
                   <c:v>3216</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1669.0272175999999</c:v>
+                  <c:v>1658.7832098000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1925,7 +1924,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'data to use old'!$B$1</c:f>
+              <c:f>savings!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1946,7 +1945,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'data to use old'!$A$2:$A$6</c:f>
+              <c:f>savings!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1969,7 +1968,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'data to use old'!$B$2:$B$6</c:f>
+              <c:f>savings!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1986,7 +1985,7 @@
                   <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1669.0272175999999</c:v>
+                  <c:v>1658.7832098000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3602,8 +3601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF0CF2D-B245-8E46-979D-7C9FE638B0C3}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3614,7 +3613,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
         <v>191</v>
@@ -3623,12 +3622,12 @@
         <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
         <v>194</v>
@@ -3643,13 +3642,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
         <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3657,7 +3656,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
         <v>193</v>
@@ -3672,7 +3671,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
         <v>193</v>
@@ -3687,7 +3686,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
         <v>195</v>
@@ -3702,7 +3701,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
         <v>195</v>
@@ -3717,13 +3716,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
         <v>221</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D8">
         <f>Calculations!C30</f>
@@ -3732,13 +3731,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
         <v>221</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f>Calculations!C31</f>
@@ -3747,28 +3746,28 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
         <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D10">
         <f>Calculations!B7</f>
-        <v>1669.0272175999999</v>
+        <v>1658.7832098000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B11" t="s">
         <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3784,8 +3783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7230DE2F-683C-F446-8E08-7B5A42AE28C1}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3843,7 +3842,7 @@
       </c>
       <c r="B6">
         <f>Calculations!B7</f>
-        <v>1669.0272175999999</v>
+        <v>1658.7832098000001</v>
       </c>
     </row>
   </sheetData>
@@ -4006,8 +4005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4074,7 +4073,7 @@
       </c>
       <c r="B7" s="1">
         <f>B58</f>
-        <v>1669.0272175999999</v>
+        <v>1658.7832098000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4473,8 +4472,8 @@
         <v>17</v>
       </c>
       <c r="B55" s="1">
-        <f>5570.48 * 2</f>
-        <v>11140.96</v>
+        <f>5536.29 * 2</f>
+        <v>11072.58</v>
       </c>
       <c r="E55" s="33"/>
     </row>
@@ -4500,7 +4499,7 @@
       </c>
       <c r="B58" s="32">
         <f>(B56*B55)/1000</f>
-        <v>1669.0272175999999</v>
+        <v>1658.7832098000001</v>
       </c>
       <c r="D58" s="2"/>
     </row>

--- a/chapters/ch12-PersonalAction/datasets/CO2Savings.xlsx
+++ b/chapters/ch12-PersonalAction/datasets/CO2Savings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch12-PersonalAction/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2A8F1A-A0B5-4E4E-9AD6-2DDF25B680DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A1B2E-EDAC-1A46-B4AB-516F07D12BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25560" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -920,9 +920,6 @@
     <t>Action</t>
   </si>
   <si>
-    <t>Savings_kgCO2_year</t>
-  </si>
-  <si>
     <t>Smaller home</t>
   </si>
   <si>
@@ -1032,6 +1029,9 @@
   </si>
   <si>
     <t>Ford F150</t>
+  </si>
+  <si>
+    <t>Savings_MgCO2_year</t>
   </si>
 </sst>
 </file>
@@ -1928,7 +1928,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Savings_kgCO2_year</c:v>
+                  <c:v>Savings_MgCO2_year</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1973,19 +1973,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6164</c:v>
+                  <c:v>6.1639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3216.3849120515952</c:v>
+                  <c:v>3.2163849120515953</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2286.3588255000004</c:v>
+                  <c:v>2.2863588255000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1980</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1658.7832098000001</c:v>
+                  <c:v>1.6587832098000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3613,27 +3613,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
         <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D2">
         <f>Calculations!B42</f>
@@ -3642,13 +3642,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3656,13 +3656,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D4">
         <f>Calculations!F21</f>
@@ -3671,13 +3671,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5">
         <f>Calculations!F20</f>
@@ -3686,13 +3686,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6">
         <f>Calculations!C48</f>
@@ -3701,13 +3701,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D7">
         <f>Calculations!C49</f>
@@ -3716,13 +3716,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8">
         <f>Calculations!C30</f>
@@ -3731,10 +3731,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -3746,13 +3746,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10">
         <f>Calculations!B7</f>
@@ -3761,13 +3761,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3784,7 +3784,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3797,52 +3797,52 @@
         <v>191</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2">
-        <f>Calculations!B3</f>
-        <v>6164</v>
+        <f>Calculations!B3 / 1000</f>
+        <v>6.1639999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3">
-        <f>Calculations!B4</f>
-        <v>3216.3849120515952</v>
+        <f>Calculations!B4 / 1000</f>
+        <v>3.2163849120515953</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4">
-        <f>Calculations!B5</f>
-        <v>2286.3588255000004</v>
+        <f>Calculations!B5 / 1000</f>
+        <v>2.2863588255000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5">
-        <f>Calculations!B6</f>
-        <v>1980</v>
+        <f>Calculations!B6 / 1000</f>
+        <v>1.98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6">
-        <f>Calculations!B7</f>
-        <v>1658.7832098000001</v>
+        <f>Calculations!B7 / 1000</f>
+        <v>1.6587832098000002</v>
       </c>
     </row>
   </sheetData>
@@ -3866,7 +3866,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3874,7 +3874,7 @@
         <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3883,7 +3883,7 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3892,7 +3892,7 @@
         <v>50000</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3901,7 +3901,7 @@
         <v>50000000000000</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3910,7 +3910,7 @@
         <v>50000000000</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3918,7 +3918,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3927,7 +3927,7 @@
         <v>8000000000</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3936,12 +3936,12 @@
         <v>6.25</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3949,7 +3949,7 @@
         <v>5268</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3958,7 +3958,7 @@
         <v>5268000000</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3967,7 +3967,7 @@
         <v>5268000000000</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3976,7 +3976,7 @@
         <v>5268000000</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3984,7 +3984,7 @@
         <v>327096263</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3993,7 +3993,7 @@
         <v>16.105350613559288</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4311,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
